--- a/REGULAR/RE-ENCODE/re encode/PARRA, VICTORIA.xlsx
+++ b/REGULAR/RE-ENCODE/re encode/PARRA, VICTORIA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\re encode\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="90">
   <si>
     <t>PERIOD</t>
   </si>
@@ -994,7 +994,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K142" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K143" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1323,12 +1323,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K142"/>
+  <dimension ref="A2:K143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A79" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A88" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="D94" sqref="D94"/>
+      <selection pane="bottomLeft" activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1487,7 +1487,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>216.39500000000001</v>
+        <v>217.64500000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1497,7 +1497,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>304.83300000000003</v>
+        <v>304.08300000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3266,15 +3266,17 @@
       <c r="B93" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="C93" s="13"/>
+      <c r="C93" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D93" s="39">
         <v>15</v>
       </c>
       <c r="E93" s="9"/>
       <c r="F93" s="20"/>
-      <c r="G93" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G93" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H93" s="39"/>
       <c r="I93" s="9"/>
@@ -3287,7 +3289,9 @@
       <c r="A94" s="40">
         <v>45078</v>
       </c>
-      <c r="B94" s="20"/>
+      <c r="B94" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C94" s="13" t="s">
         <v>88</v>
       </c>
@@ -3298,16 +3302,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H94" s="39"/>
+      <c r="H94" s="39">
+        <v>1</v>
+      </c>
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
-      <c r="K94" s="20"/>
+      <c r="K94" s="49">
+        <v>45087</v>
+      </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B95" s="20"/>
+      <c r="A95" s="40"/>
+      <c r="B95" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
       <c r="E95" s="9"/>
@@ -3316,14 +3324,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H95" s="39"/>
+      <c r="H95" s="39">
+        <v>1</v>
+      </c>
       <c r="I95" s="9"/>
       <c r="J95" s="11"/>
-      <c r="K95" s="20"/>
+      <c r="K95" s="49">
+        <v>45094</v>
+      </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3341,7 +3353,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3359,7 +3371,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3377,7 +3389,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3395,7 +3407,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3413,7 +3425,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3431,7 +3443,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3449,7 +3461,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3467,7 +3479,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3485,7 +3497,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3503,7 +3515,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3521,7 +3533,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3539,7 +3551,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3557,7 +3569,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3575,7 +3587,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3593,7 +3605,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3611,7 +3623,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3629,7 +3641,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3647,7 +3659,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3665,7 +3677,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3683,7 +3695,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3701,7 +3713,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3719,7 +3731,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3737,7 +3749,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3755,7 +3767,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3773,7 +3785,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3791,7 +3803,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3809,7 +3821,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -3827,7 +3839,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -3845,7 +3857,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -3863,7 +3875,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -3881,7 +3893,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -3899,7 +3911,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -3917,7 +3929,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -3935,7 +3947,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -3953,7 +3965,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -3971,7 +3983,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -3989,7 +4001,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -4007,7 +4019,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -4025,7 +4037,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -4043,7 +4055,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -4060,7 +4072,9 @@
       <c r="K136" s="20"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="40"/>
+      <c r="A137" s="40">
+        <v>46357</v>
+      </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
       <c r="D137" s="39"/>
@@ -4140,20 +4154,36 @@
       <c r="K141" s="20"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="41"/>
-      <c r="B142" s="15"/>
-      <c r="C142" s="42"/>
-      <c r="D142" s="43"/>
+      <c r="A142" s="40"/>
+      <c r="B142" s="20"/>
+      <c r="C142" s="13"/>
+      <c r="D142" s="39"/>
       <c r="E142" s="9"/>
-      <c r="F142" s="15"/>
-      <c r="G142" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H142" s="43"/>
+      <c r="F142" s="20"/>
+      <c r="G142" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H142" s="39"/>
       <c r="I142" s="9"/>
-      <c r="J142" s="12"/>
-      <c r="K142" s="15"/>
+      <c r="J142" s="11"/>
+      <c r="K142" s="20"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" s="41"/>
+      <c r="B143" s="15"/>
+      <c r="C143" s="42"/>
+      <c r="D143" s="43"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="15"/>
+      <c r="G143" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H143" s="43"/>
+      <c r="I143" s="9"/>
+      <c r="J143" s="12"/>
+      <c r="K143" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
